--- a/data/trans_orig/P1413-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1413-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>66567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53188</v>
+        <v>52082</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84209</v>
+        <v>82372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1405031847002062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1122636441197798</v>
+        <v>0.1099296538084435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1777403927212492</v>
+        <v>0.1738628576968345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>39313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28128</v>
+        <v>29463</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51485</v>
+        <v>51792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.12818859753591</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09171880096428754</v>
+        <v>0.09607184507518955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.167878379590831</v>
+        <v>0.1688803530614793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -786,19 +786,19 @@
         <v>105880</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88011</v>
+        <v>88290</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126333</v>
+        <v>127646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.13566416962809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1127680131539265</v>
+        <v>0.1131256666762741</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1618704732223573</v>
+        <v>0.1635522782303162</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>407209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389567</v>
+        <v>391404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420588</v>
+        <v>421694</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8594968152997937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8222596072787505</v>
+        <v>0.8261371423031655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8877363558802199</v>
+        <v>0.8900703461915566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -836,19 +836,19 @@
         <v>267367</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255195</v>
+        <v>254888</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278552</v>
+        <v>277217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8718114024640901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8321216204091689</v>
+        <v>0.8311196469385206</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9082811990357125</v>
+        <v>0.9039281549248105</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>649</v>
@@ -857,19 +857,19 @@
         <v>674577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>654124</v>
+        <v>652811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>692446</v>
+        <v>692167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8643358303719101</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8381295267776427</v>
+        <v>0.8364477217696838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8872319868460741</v>
+        <v>0.886874333323726</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>36949</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27162</v>
+        <v>27013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50675</v>
+        <v>51487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1006964078067034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07402382379632395</v>
+        <v>0.07361904013010931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1381042254321518</v>
+        <v>0.1403174641095709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -982,19 +982,19 @@
         <v>62816</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49041</v>
+        <v>50129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77966</v>
+        <v>78729</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.168921219704025</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1318788640943263</v>
+        <v>0.1348052656525834</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2096629436652588</v>
+        <v>0.2117125907180284</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -1003,19 +1003,19 @@
         <v>99765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82125</v>
+        <v>82768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119313</v>
+        <v>121636</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1350364790801389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1111597778819453</v>
+        <v>0.1120303283612668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1614964898507865</v>
+        <v>0.164640804831081</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>329985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316259</v>
+        <v>315447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339772</v>
+        <v>339921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8993035921932966</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8618957745678483</v>
+        <v>0.8596825358904293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9259761762036761</v>
+        <v>0.9263809598698908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -1053,19 +1053,19 @@
         <v>309049</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>293899</v>
+        <v>293136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322824</v>
+        <v>321736</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.831078780295975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7903370563347413</v>
+        <v>0.7882874092819716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8681211359056739</v>
+        <v>0.8651947343474167</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>614</v>
@@ -1074,19 +1074,19 @@
         <v>639034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>619486</v>
+        <v>617163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>656674</v>
+        <v>656031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8649635209198611</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8385035101492133</v>
+        <v>0.8353591951689188</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8888402221180546</v>
+        <v>0.8879696716387332</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>100759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83846</v>
+        <v>84762</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119332</v>
+        <v>119939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1857683832851944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1545873375760126</v>
+        <v>0.1562747395297324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.220011670418597</v>
+        <v>0.2211316511400976</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1199,19 +1199,19 @@
         <v>35196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24694</v>
+        <v>24617</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47242</v>
+        <v>46307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2097735297414415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1471791105359686</v>
+        <v>0.1467190928688616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2815657358546808</v>
+        <v>0.2759951325356872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -1220,19 +1220,19 @@
         <v>135955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>115085</v>
+        <v>116576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156149</v>
+        <v>159528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1914397346272128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1620528828618317</v>
+        <v>0.1641523742753422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2198750584609919</v>
+        <v>0.2246334990269954</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>441630</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>423057</v>
+        <v>422450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>458543</v>
+        <v>457627</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8142316167148056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.779988329581403</v>
+        <v>0.7788683488599023</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8454126624239873</v>
+        <v>0.8437252604702675</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -1270,19 +1270,19 @@
         <v>132586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>120540</v>
+        <v>121475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143088</v>
+        <v>143165</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7902264702585585</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7184342641453192</v>
+        <v>0.724004867464313</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8528208894640313</v>
+        <v>0.8532809071311384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>560</v>
@@ -1291,19 +1291,19 @@
         <v>574216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>554022</v>
+        <v>550643</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595086</v>
+        <v>593595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8085602653727872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7801249415390081</v>
+        <v>0.775366500973005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8379471171381683</v>
+        <v>0.8358476257246579</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>252648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227397</v>
+        <v>226900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>280577</v>
+        <v>280512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2040228756056489</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1836312198399102</v>
+        <v>0.183230308962497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2265763167772115</v>
+        <v>0.2265234682236274</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -1416,19 +1416,19 @@
         <v>137209</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118973</v>
+        <v>117690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159592</v>
+        <v>158831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1920931793756221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1665629484601757</v>
+        <v>0.164766009760957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2234291290429902</v>
+        <v>0.2223638015311702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>393</v>
@@ -1437,19 +1437,19 @@
         <v>389858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>357442</v>
+        <v>358276</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424731</v>
+        <v>427969</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1996588886618231</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1830574847815014</v>
+        <v>0.1834847138636868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2175186186174179</v>
+        <v>0.2191768801674805</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>985686</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>957757</v>
+        <v>957822</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1010937</v>
+        <v>1011434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7959771243943511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7734236832227885</v>
+        <v>0.7734765317763725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8163687801600898</v>
+        <v>0.816769691037503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>558</v>
@@ -1487,19 +1487,19 @@
         <v>577076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>554693</v>
+        <v>555454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>595312</v>
+        <v>596595</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8079068206243779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7765708709570098</v>
+        <v>0.7776361984688295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8334370515398243</v>
+        <v>0.835233990239043</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1525</v>
@@ -1508,19 +1508,19 @@
         <v>1562762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1527889</v>
+        <v>1524651</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1595178</v>
+        <v>1594344</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8003411113381769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7824813813825821</v>
+        <v>0.7808231198325196</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8169425152184987</v>
+        <v>0.8165152861363133</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>66760</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53045</v>
+        <v>54240</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81066</v>
+        <v>82622</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1904421889846112</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.151318588079026</v>
+        <v>0.1547274052096956</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2312518084081065</v>
+        <v>0.235690226591466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1633,19 +1633,19 @@
         <v>122396</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103317</v>
+        <v>103241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142769</v>
+        <v>143328</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2152017170934039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1816558975449958</v>
+        <v>0.1815215906799</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2510210401415372</v>
+        <v>0.2520046798525212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -1654,19 +1654,19 @@
         <v>189157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162963</v>
+        <v>164629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213731</v>
+        <v>213387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2057602769546927</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1772676809101034</v>
+        <v>0.1790799858894409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2324917788119216</v>
+        <v>0.2321175274928773</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>283795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>269489</v>
+        <v>267933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297510</v>
+        <v>296315</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8095578110153888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7687481915918934</v>
+        <v>0.7643097734085343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8486814119209739</v>
+        <v>0.8452725947903044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>422</v>
@@ -1704,19 +1704,19 @@
         <v>446356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>425983</v>
+        <v>425424</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>465435</v>
+        <v>465511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7847982829065961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7489789598584629</v>
+        <v>0.7479953201474787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8183441024550041</v>
+        <v>0.8184784093201002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>692</v>
@@ -1725,19 +1725,19 @@
         <v>730150</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>705576</v>
+        <v>705920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>756344</v>
+        <v>754678</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7942397230453073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7675082211880784</v>
+        <v>0.7678824725071229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8227323190898965</v>
+        <v>0.8209200141105591</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5656</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1919</v>
+        <v>2532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11458</v>
+        <v>12579</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01896551408368844</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006436252004412551</v>
+        <v>0.008492534620088197</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03842391588466158</v>
+        <v>0.04218357756408192</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>250</v>
@@ -1850,19 +1850,19 @@
         <v>253288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>225585</v>
+        <v>225943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>282722</v>
+        <v>283816</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2028315883502841</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1806473394207294</v>
+        <v>0.1809338473152053</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2264019294482821</v>
+        <v>0.2272784376235518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>256</v>
@@ -1871,19 +1871,19 @@
         <v>258943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>230297</v>
+        <v>234664</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288147</v>
+        <v>291503</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1673885575636519</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1488709379809903</v>
+        <v>0.1516938457047448</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1862664661455865</v>
+        <v>0.1884358638651727</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>292545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286743</v>
+        <v>285622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296282</v>
+        <v>295669</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9810344859163116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9615760841153386</v>
+        <v>0.9578164224359181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9935637479955874</v>
+        <v>0.9915074653799117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>988</v>
@@ -1921,19 +1921,19 @@
         <v>995472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>966038</v>
+        <v>964944</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1023175</v>
+        <v>1022817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7971684116497159</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7735980705517181</v>
+        <v>0.7727215623764478</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8193526605792707</v>
+        <v>0.8190661526847947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1288</v>
@@ -1942,19 +1942,19 @@
         <v>1288017</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1258813</v>
+        <v>1255457</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1316663</v>
+        <v>1312296</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8326114424363481</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8137335338544134</v>
+        <v>0.8115641361348274</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8511290620190096</v>
+        <v>0.8483061542952552</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>529339</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>490506</v>
+        <v>482540</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>572128</v>
+        <v>570986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1618680883083753</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1499932706239173</v>
+        <v>0.1475570744609392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.174952384493455</v>
+        <v>0.17460337940082</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>638</v>
@@ -2067,19 +2067,19 @@
         <v>650219</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>606430</v>
+        <v>603983</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>698229</v>
+        <v>694696</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1924792045592816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1795167794577142</v>
+        <v>0.1787924565488921</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2066914847715025</v>
+        <v>0.2056455452038969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1175</v>
@@ -2088,19 +2088,19 @@
         <v>1179558</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1118628</v>
+        <v>1122313</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1239487</v>
+        <v>1247724</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1774221290477096</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1682574413965394</v>
+        <v>0.1688116939941255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1864362431763472</v>
+        <v>0.1876751807425957</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2740851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2698062</v>
+        <v>2699204</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2779684</v>
+        <v>2787650</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8381319116916246</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8250476155065449</v>
+        <v>0.82539662059918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8500067293760826</v>
+        <v>0.8524429255390608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2658</v>
@@ -2138,19 +2138,19 @@
         <v>2727905</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2679895</v>
+        <v>2683428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2771694</v>
+        <v>2774141</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8075207954407184</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7933085152284977</v>
+        <v>0.7943544547961038</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8204832205422858</v>
+        <v>0.8212075434511085</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5328</v>
@@ -2159,19 +2159,19 @@
         <v>5468756</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5408827</v>
+        <v>5400590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5529686</v>
+        <v>5526001</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8225778709522904</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8135637568236528</v>
+        <v>0.8123248192574042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8317425586034606</v>
+        <v>0.8311883060058745</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>31121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22283</v>
+        <v>20568</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42646</v>
+        <v>42127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07118178384816948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05096675460220663</v>
+        <v>0.04704347731206776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09754101867589736</v>
+        <v>0.09635378385039119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2526,19 +2526,19 @@
         <v>39132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26438</v>
+        <v>28369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53440</v>
+        <v>53358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1244432544810991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08407519293746127</v>
+        <v>0.09021562577855408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1699465699761845</v>
+        <v>0.1696843728557377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -2547,19 +2547,19 @@
         <v>70253</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54688</v>
+        <v>54401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89087</v>
+        <v>87121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09346337907621291</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07275546299237251</v>
+        <v>0.07237429644557793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1185194905758074</v>
+        <v>0.1159036551916826</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>406090</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>394565</v>
+        <v>395084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>414928</v>
+        <v>416643</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9288182161518305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.902458981324102</v>
+        <v>0.9036462161496084</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9490332453977929</v>
+        <v>0.9529565226879322</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -2597,19 +2597,19 @@
         <v>275322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>261014</v>
+        <v>261096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288016</v>
+        <v>286085</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8755567455189009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8300534300238155</v>
+        <v>0.8303156271442622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9159248070625388</v>
+        <v>0.9097843742214459</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>622</v>
@@ -2618,19 +2618,19 @@
         <v>681412</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>662578</v>
+        <v>664544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696977</v>
+        <v>697264</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9065366209237871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8814805094241925</v>
+        <v>0.8840963448083174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9272445370076273</v>
+        <v>0.9276257035544221</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>35082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24768</v>
+        <v>24211</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47981</v>
+        <v>49431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08376921459903343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0591413548925805</v>
+        <v>0.05781078372266409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1145676758160643</v>
+        <v>0.1180312636514877</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -2743,19 +2743,19 @@
         <v>47983</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35284</v>
+        <v>36754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61491</v>
+        <v>62271</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1419558091259211</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1043866378546682</v>
+        <v>0.1087373699986978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1819211069673808</v>
+        <v>0.1842284938840767</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>76</v>
@@ -2764,19 +2764,19 @@
         <v>83065</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64434</v>
+        <v>65298</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101009</v>
+        <v>102873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1097569331130563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08513929841880515</v>
+        <v>0.0862804566016562</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1334670503561291</v>
+        <v>0.1359305148199718</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>383715</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370816</v>
+        <v>369366</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>394029</v>
+        <v>394586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9162307854009666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8854323241839355</v>
+        <v>0.8819687363485121</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9408586451074195</v>
+        <v>0.9421892162773358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -2814,19 +2814,19 @@
         <v>290028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276520</v>
+        <v>275740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>302727</v>
+        <v>301257</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8580441908740789</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8180788930326194</v>
+        <v>0.8157715061159234</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8956133621453324</v>
+        <v>0.8912626300013022</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -2835,19 +2835,19 @@
         <v>673743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>655799</v>
+        <v>653935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>692374</v>
+        <v>691510</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8902430668869438</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8665329496438707</v>
+        <v>0.8640694851800284</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9148607015811947</v>
+        <v>0.913719543398344</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>64429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49379</v>
+        <v>49213</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81762</v>
+        <v>81838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1023637563692622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07845234739893461</v>
+        <v>0.078189228331668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1299008629146781</v>
+        <v>0.130021529005013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -2960,19 +2960,19 @@
         <v>39928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29740</v>
+        <v>29389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53238</v>
+        <v>52961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1534921315580569</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1143274301702758</v>
+        <v>0.1129790505756983</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2046600339751709</v>
+        <v>0.2035942691203226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -2981,19 +2981,19 @@
         <v>104357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84985</v>
+        <v>85339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124811</v>
+        <v>124598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1173152274161265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09553782126881227</v>
+        <v>0.09593558693129578</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.140309177367816</v>
+        <v>0.1400700154472754</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>564986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>547653</v>
+        <v>547577</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>580036</v>
+        <v>580202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8976362436307378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8700991370853218</v>
+        <v>0.8699784709949868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9215476526010652</v>
+        <v>0.9218107716683318</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>206</v>
@@ -3031,19 +3031,19 @@
         <v>220201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>206891</v>
+        <v>207168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230389</v>
+        <v>230740</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8465078684419431</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7953399660248293</v>
+        <v>0.7964057308796768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8856725698297242</v>
+        <v>0.8870209494243014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>738</v>
@@ -3052,19 +3052,19 @@
         <v>785187</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>764733</v>
+        <v>764946</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>804559</v>
+        <v>804205</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8826847725838735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.859690822632184</v>
+        <v>0.8599299845527244</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9044621787311877</v>
+        <v>0.9040644130687042</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>128546</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>108267</v>
+        <v>108219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152492</v>
+        <v>150530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1109104099088999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09341330077427273</v>
+        <v>0.09337199005060887</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1315707883160433</v>
+        <v>0.1298783446804426</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -3177,19 +3177,19 @@
         <v>124303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106002</v>
+        <v>106439</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>147974</v>
+        <v>145959</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1625472936239322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.138614621736783</v>
+        <v>0.139186663156475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1935009158878845</v>
+        <v>0.1908659675448905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -3198,19 +3198,19 @@
         <v>252850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222882</v>
+        <v>226051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284751</v>
+        <v>285980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1314371165454054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1158594738227357</v>
+        <v>0.1175067333477066</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1480202063974931</v>
+        <v>0.1486588535994241</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1030463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1006517</v>
+        <v>1008479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1050742</v>
+        <v>1050790</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8890895900911001</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8684292116839567</v>
+        <v>0.8701216553195578</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9065866992257272</v>
+        <v>0.9066280099493912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>597</v>
@@ -3248,19 +3248,19 @@
         <v>640419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>616748</v>
+        <v>618763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>658720</v>
+        <v>658283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8374527063760678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8064990841121156</v>
+        <v>0.8091340324551095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8613853782632164</v>
+        <v>0.860813336843525</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1560</v>
@@ -3269,19 +3269,19 @@
         <v>1670881</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1638980</v>
+        <v>1637751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1700849</v>
+        <v>1697680</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8685628834545945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8519797936025072</v>
+        <v>0.8513411464005759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8841405261772644</v>
+        <v>0.8824932666522934</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>43707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31616</v>
+        <v>31026</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57355</v>
+        <v>56848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08560000137505826</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06192041924846136</v>
+        <v>0.0607639693630587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1123293886991492</v>
+        <v>0.1113373696932644</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -3394,19 +3394,19 @@
         <v>175967</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>153928</v>
+        <v>153032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202880</v>
+        <v>201026</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2314606148778444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2024714650034745</v>
+        <v>0.2012929190449479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2668611413004583</v>
+        <v>0.2644219019250337</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -3415,19 +3415,19 @@
         <v>219674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>192040</v>
+        <v>193453</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>248698</v>
+        <v>247901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1728570649442117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1511124916975823</v>
+        <v>0.1522240344423271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1956956440313835</v>
+        <v>0.1950684878251548</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>466889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>453241</v>
+        <v>453748</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>478980</v>
+        <v>479570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9143999986249417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8876706113008511</v>
+        <v>0.8886626303067355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9380795807515389</v>
+        <v>0.9392360306369413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>539</v>
@@ -3465,19 +3465,19 @@
         <v>584279</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>557366</v>
+        <v>559220</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>606318</v>
+        <v>607214</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7685393851221556</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7331388586995415</v>
+        <v>0.7355780980749662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7975285349965254</v>
+        <v>0.7987070809550521</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>985</v>
@@ -3486,19 +3486,19 @@
         <v>1051169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1022145</v>
+        <v>1022942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1078803</v>
+        <v>1077390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8271429350557883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8043043559686163</v>
+        <v>0.804931512174845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8488875083024175</v>
+        <v>0.8477759655576729</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>6067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15091</v>
+        <v>13751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02273371569884232</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007512267952607351</v>
+        <v>0.007559230420698214</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05654692807013306</v>
+        <v>0.05152435204126541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>199</v>
@@ -3611,19 +3611,19 @@
         <v>216163</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188012</v>
+        <v>185583</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243740</v>
+        <v>240997</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1948551698041638</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1694794689402297</v>
+        <v>0.1672893837285072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2197139705902279</v>
+        <v>0.2172413851528225</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>204</v>
@@ -3632,19 +3632,19 @@
         <v>222230</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>190983</v>
+        <v>195343</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>249209</v>
+        <v>252020</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1614770287911479</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1387725462160411</v>
+        <v>0.1419406790641827</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1810807116867134</v>
+        <v>0.183122991403329</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251791</v>
+        <v>253131</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264877</v>
+        <v>264865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9772662843011577</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9434530719298665</v>
+        <v>0.9484756479587345</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9924877320473926</v>
+        <v>0.9924407695793017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>845</v>
@@ -3682,19 +3682,19 @@
         <v>893188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>865611</v>
+        <v>868354</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>921339</v>
+        <v>923768</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8051448301958362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7802860294097719</v>
+        <v>0.7827586148471776</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8305205310597702</v>
+        <v>0.8327106162714928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1105</v>
@@ -3703,19 +3703,19 @@
         <v>1154003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1127024</v>
+        <v>1124213</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1185250</v>
+        <v>1180890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8385229712088521</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8189192883132868</v>
+        <v>0.8168770085966702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8612274537839593</v>
+        <v>0.8580593209358172</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>308953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>277166</v>
+        <v>275373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>346317</v>
+        <v>347910</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09028684332298628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0809975028073321</v>
+        <v>0.08047336756454081</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.101205836736118</v>
+        <v>0.1016712964412199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>591</v>
@@ -3828,19 +3828,19 @@
         <v>643476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>599067</v>
+        <v>599761</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>691914</v>
+        <v>690322</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1814184125370581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1688981192073092</v>
+        <v>0.169093814867303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1950748863049108</v>
+        <v>0.1946259802234451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>879</v>
@@ -3849,19 +3849,19 @@
         <v>952429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>893039</v>
+        <v>896719</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1010881</v>
+        <v>1011911</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1366699731082594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1281477209377979</v>
+        <v>0.1286757344981923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1450575917513247</v>
+        <v>0.1452054432622691</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3112957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3075593</v>
+        <v>3074000</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3144744</v>
+        <v>3146537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9097131566770137</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.898794163263882</v>
+        <v>0.8983287035587799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9190024971926678</v>
+        <v>0.9195266324354592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2697</v>
@@ -3899,19 +3899,19 @@
         <v>2903439</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2855001</v>
+        <v>2856593</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2947848</v>
+        <v>2947154</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.818581587462942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8049251136950877</v>
+        <v>0.805374019776555</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8311018807926904</v>
+        <v>0.8309061851326972</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5614</v>
@@ -3920,19 +3920,19 @@
         <v>6016396</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5957944</v>
+        <v>5956914</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6075786</v>
+        <v>6072106</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8633300268917407</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8549424082486754</v>
+        <v>0.8547945567377309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8718522790622023</v>
+        <v>0.8713242655018077</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>34335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23013</v>
+        <v>23614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46330</v>
+        <v>47841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08001809857724466</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05363180438858235</v>
+        <v>0.05503330377930724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1079715909696472</v>
+        <v>0.1114927271724593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4287,19 +4287,19 @@
         <v>26894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17808</v>
+        <v>18137</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39305</v>
+        <v>38156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07749210110765663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05131170202570298</v>
+        <v>0.05225914369817405</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1132536115458186</v>
+        <v>0.1099408398431988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -4308,19 +4308,19 @@
         <v>61229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47601</v>
+        <v>47314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78065</v>
+        <v>79257</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07888859616405876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0613302480906056</v>
+        <v>0.06096042346380703</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1005800225069742</v>
+        <v>0.1021154270273756</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>394757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382762</v>
+        <v>381251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>406079</v>
+        <v>405478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9199819014227554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8920284090303527</v>
+        <v>0.8885072728275401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9463681956114173</v>
+        <v>0.9449666962206927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>307</v>
@@ -4358,19 +4358,19 @@
         <v>320161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307750</v>
+        <v>308899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329247</v>
+        <v>328918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9225078988923434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8867463884541807</v>
+        <v>0.890059160156801</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9486882979742969</v>
+        <v>0.9477408563018259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -4379,19 +4379,19 @@
         <v>714918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>698082</v>
+        <v>696890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>728546</v>
+        <v>728833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9211114038359413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8994199774930254</v>
+        <v>0.8978845729726244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9386697519093944</v>
+        <v>0.9390395765361927</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>21468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13221</v>
+        <v>13509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32568</v>
+        <v>32597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05691051820066206</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03504771237183017</v>
+        <v>0.03581216615604196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0863357427408509</v>
+        <v>0.08641189865220776</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -4504,19 +4504,19 @@
         <v>43645</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31368</v>
+        <v>32264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57004</v>
+        <v>58582</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1172382983670523</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08426195821024418</v>
+        <v>0.08666873065775912</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.153124880492485</v>
+        <v>0.1573642646921199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -4525,19 +4525,19 @@
         <v>65113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49329</v>
+        <v>50643</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82165</v>
+        <v>84381</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08687504389302465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06581551986990447</v>
+        <v>0.0675689460784567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1096267925582684</v>
+        <v>0.1125827442827309</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>355759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>344659</v>
+        <v>344630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364006</v>
+        <v>363718</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9430894817993379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.913664257259149</v>
+        <v>0.9135881013477922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9649522876281698</v>
+        <v>0.9641878338439582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>312</v>
@@ -4575,19 +4575,19 @@
         <v>328628</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>315269</v>
+        <v>313691</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>340905</v>
+        <v>340009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8827617016329478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.846875119507515</v>
+        <v>0.8426357353078802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9157380417897558</v>
+        <v>0.913331269342241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>647</v>
@@ -4596,19 +4596,19 @@
         <v>684387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>667335</v>
+        <v>665119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>700171</v>
+        <v>698857</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9131249561069753</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8903732074417317</v>
+        <v>0.8874172557172691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9341844801300956</v>
+        <v>0.9324310539215434</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>40840</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30210</v>
+        <v>29487</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55187</v>
+        <v>54829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07825130190034098</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0578838474904535</v>
+        <v>0.05649835067443522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1057400407465733</v>
+        <v>0.1050533045956042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -4721,19 +4721,19 @@
         <v>34121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24074</v>
+        <v>23814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46192</v>
+        <v>44928</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2053945606892942</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.144917754949521</v>
+        <v>0.1433504231157838</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2780613610967347</v>
+        <v>0.2704527793159529</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -4742,19 +4742,19 @@
         <v>74961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59247</v>
+        <v>59430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93224</v>
+        <v>92562</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1089493750898712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08611064499907314</v>
+        <v>0.08637620400275756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1354921882175717</v>
+        <v>0.1345310076372547</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>481074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466727</v>
+        <v>467085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>491704</v>
+        <v>492427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.921748698099659</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8942599592534267</v>
+        <v>0.8949466954043958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9421161525095467</v>
+        <v>0.9435016493255647</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -4792,19 +4792,19 @@
         <v>132002</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119931</v>
+        <v>121195</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142049</v>
+        <v>142309</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7946054393107058</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7219386389032654</v>
+        <v>0.7295472206840471</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8550822450504789</v>
+        <v>0.8566495768842161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>586</v>
@@ -4813,19 +4813,19 @@
         <v>613075</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594812</v>
+        <v>595474</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>628789</v>
+        <v>628606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8910506249101288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8645078117824283</v>
+        <v>0.8654689923627452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9138893550009268</v>
+        <v>0.9136237959972424</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>105062</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85639</v>
+        <v>86919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125594</v>
+        <v>126127</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09138710328675564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07449206553140487</v>
+        <v>0.07560588895134011</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1092465565714786</v>
+        <v>0.1097105113328272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>98</v>
@@ -4938,19 +4938,19 @@
         <v>107635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88542</v>
+        <v>89050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129718</v>
+        <v>130503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1303288003305811</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1072094988273774</v>
+        <v>0.1078244139129193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1570669306477263</v>
+        <v>0.1580176342745529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -4959,19 +4959,19 @@
         <v>212698</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>184939</v>
+        <v>183595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>240501</v>
+        <v>241667</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1076669189400641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09361558084381894</v>
+        <v>0.09293524608248077</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.121741123392369</v>
+        <v>0.1223310843063264</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1044576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1024044</v>
+        <v>1023511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1063999</v>
+        <v>1062719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9086128967132444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8907534434285214</v>
+        <v>0.8902894886671727</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9255079344685951</v>
+        <v>0.9243941110486599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -5009,19 +5009,19 @@
         <v>718241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696158</v>
+        <v>695373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737334</v>
+        <v>736826</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.869671199669419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8429330693522741</v>
+        <v>0.8419823657254474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8927905011726228</v>
+        <v>0.8921755860870808</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1703</v>
@@ -5030,19 +5030,19 @@
         <v>1762816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1735013</v>
+        <v>1733847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1790575</v>
+        <v>1791919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8923330810599358</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8782588766076311</v>
+        <v>0.8776689156936736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9063844191561813</v>
+        <v>0.9070647539175195</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>74648</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60095</v>
+        <v>59579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92340</v>
+        <v>91968</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1202627462332889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09681719093964421</v>
+        <v>0.09598657668581789</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1487659142854109</v>
+        <v>0.1481665704940171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -5155,19 +5155,19 @@
         <v>127218</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>108317</v>
+        <v>107723</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150440</v>
+        <v>148970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1723253615212761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1467227322615483</v>
+        <v>0.1459178032710341</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.203781194228065</v>
+        <v>0.2017898419340406</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -5176,19 +5176,19 @@
         <v>201866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176596</v>
+        <v>175558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229803</v>
+        <v>227839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1485455526755014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1299505660818939</v>
+        <v>0.1291866886174643</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1691036715494718</v>
+        <v>0.1676577533817478</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>546058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>528366</v>
+        <v>528738</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>560611</v>
+        <v>561127</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8797372537667111</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8512340857145888</v>
+        <v>0.851833429505983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9031828090603558</v>
+        <v>0.9040134233141819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>582</v>
@@ -5226,19 +5226,19 @@
         <v>611026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>587804</v>
+        <v>589274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>629927</v>
+        <v>630521</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8276746384787239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7962188057719349</v>
+        <v>0.7982101580659592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8532772677384516</v>
+        <v>0.8540821967289657</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1106</v>
@@ -5247,19 +5247,19 @@
         <v>1157084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1129147</v>
+        <v>1131111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1182354</v>
+        <v>1183392</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8514544473244986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8308963284505279</v>
+        <v>0.8323422466182517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.870049433918106</v>
+        <v>0.8708133113825355</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003951735175798903</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>130</v>
@@ -5372,19 +5372,19 @@
         <v>150029</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127705</v>
+        <v>127896</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176425</v>
+        <v>175598</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1386558094219392</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1180242937686238</v>
+        <v>0.1182003788977591</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1630506090819062</v>
+        <v>0.162286532244017</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -5393,19 +5393,19 @@
         <v>151164</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127971</v>
+        <v>127867</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178693</v>
+        <v>178694</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.110405394008995</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09346608409030915</v>
+        <v>0.09338986984084596</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1305116128706497</v>
+        <v>0.1305125172024122</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>286010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281411</v>
+        <v>281452</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9960482648242011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9800319710103347</v>
+        <v>0.9801734854312804</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>931996</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>905600</v>
+        <v>906427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>954320</v>
+        <v>954129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8613441905780608</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8369493909180938</v>
+        <v>0.8377134677559829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8819757062313762</v>
+        <v>0.8817996211022409</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1133</v>
@@ -5464,19 +5464,19 @@
         <v>1218006</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1190477</v>
+        <v>1190476</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1241199</v>
+        <v>1241303</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8895946059910049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8694883871293514</v>
+        <v>0.8694874827975878</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9065339159096913</v>
+        <v>0.906610130159154</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>277488</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245715</v>
+        <v>246001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>310096</v>
+        <v>313098</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08195840247213451</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.072573978485225</v>
+        <v>0.07265840437775987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09158930792081776</v>
+        <v>0.09247598057817652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>440</v>
@@ -5589,19 +5589,19 @@
         <v>489542</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>447117</v>
+        <v>444129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>533793</v>
+        <v>530297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.138617798665311</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1266047852942057</v>
+        <v>0.1257585897482621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1511479010750128</v>
+        <v>0.1501578973365829</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>703</v>
@@ -5610,19 +5610,19 @@
         <v>767030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>715775</v>
+        <v>712385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>828316</v>
+        <v>821653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1108855225502559</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1034757528527103</v>
+        <v>0.1029856590758924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1197452680422942</v>
+        <v>0.1187820732460425</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3108234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3075626</v>
+        <v>3072624</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3140007</v>
+        <v>3139721</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9180415975278655</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9084106920791825</v>
+        <v>0.9075240194218235</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.927426021514775</v>
+        <v>0.9273415956222402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2886</v>
@@ -5660,19 +5660,19 @@
         <v>3042054</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2997803</v>
+        <v>3001299</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3084479</v>
+        <v>3087467</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.861382201334689</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8488520989249874</v>
+        <v>0.8498421026634162</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8733952147057945</v>
+        <v>0.874241410251737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5847</v>
@@ -5681,19 +5681,19 @@
         <v>6150288</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6089002</v>
+        <v>6095665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6201543</v>
+        <v>6204933</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8891144774497441</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.880254731957706</v>
+        <v>0.8812179267539575</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8965242471472897</v>
+        <v>0.8970143409241077</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>81795</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66733</v>
+        <v>66907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99249</v>
+        <v>99793</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.148871188829803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1214578766576027</v>
+        <v>0.121773740054881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1806381745784606</v>
+        <v>0.1816283289845787</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -6048,19 +6048,19 @@
         <v>114662</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98890</v>
+        <v>101032</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131822</v>
+        <v>132170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2350982271096138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2027599450254554</v>
+        <v>0.2071523560602003</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2702823857494127</v>
+        <v>0.2709964821626102</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>258</v>
@@ -6069,19 +6069,19 @@
         <v>196457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174750</v>
+        <v>174159</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>220828</v>
+        <v>220813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1894193058049326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1684895775103554</v>
+        <v>0.1679202603048186</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2129171072073036</v>
+        <v>0.2129030878984597</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>467639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450185</v>
+        <v>449641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>482701</v>
+        <v>482527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8511288111701969</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8193618254215395</v>
+        <v>0.8183716710154214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8785421233423972</v>
+        <v>0.8782262599451189</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>520</v>
@@ -6119,19 +6119,19 @@
         <v>373058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>355898</v>
+        <v>355550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>388830</v>
+        <v>386688</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7649017728903863</v>
+        <v>0.7649017728903862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7297176142505872</v>
+        <v>0.7290035178373898</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7972400549745446</v>
+        <v>0.7928476439397999</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>980</v>
@@ -6140,19 +6140,19 @@
         <v>840697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>816326</v>
+        <v>816341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>862404</v>
+        <v>862995</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8105806941950672</v>
+        <v>0.8105806941950673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7870828927926962</v>
+        <v>0.7870969121015404</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8315104224896444</v>
+        <v>0.8320797396951818</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>80374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64169</v>
+        <v>64315</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98225</v>
+        <v>99028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1666399570079568</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1330422241691739</v>
+        <v>0.1333458396207825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.203650266214369</v>
+        <v>0.205316061371827</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>171</v>
@@ -6265,19 +6265,19 @@
         <v>118324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102152</v>
+        <v>102694</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132619</v>
+        <v>134940</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2800619193728439</v>
+        <v>0.280061919372844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2417836198050348</v>
+        <v>0.243066823570437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3138975981839939</v>
+        <v>0.3193895717810812</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>258</v>
@@ -6286,19 +6286,19 @@
         <v>198698</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>174973</v>
+        <v>175953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>223916</v>
+        <v>223382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2196010293781848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1933803348150938</v>
+        <v>0.1944635049152534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2474728246438625</v>
+        <v>0.2468824442296725</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>401947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>384096</v>
+        <v>383293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>418152</v>
+        <v>418006</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8333600429920432</v>
+        <v>0.8333600429920434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7963497337856311</v>
+        <v>0.7946839386281729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8669577758308263</v>
+        <v>0.8666541603792172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -6336,19 +6336,19 @@
         <v>304168</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289873</v>
+        <v>287552</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>320340</v>
+        <v>319798</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7199380806271559</v>
+        <v>0.719938080627156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.686102401816006</v>
+        <v>0.6806104282189189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7582163801949652</v>
+        <v>0.7569331764295629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>811</v>
@@ -6357,19 +6357,19 @@
         <v>706114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>680896</v>
+        <v>681430</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>729839</v>
+        <v>728859</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7803989706218153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7525271753561376</v>
+        <v>0.7531175557703274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8066196651849062</v>
+        <v>0.8055364950847465</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>102901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86140</v>
+        <v>86026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120683</v>
+        <v>121262</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2185935463150011</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1829882049562469</v>
+        <v>0.1827447212926676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2563679290055727</v>
+        <v>0.2575962158605485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>109</v>
@@ -6482,19 +6482,19 @@
         <v>67845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56784</v>
+        <v>57529</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79302</v>
+        <v>80119</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3618438556529857</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3028532775607268</v>
+        <v>0.3068275597636539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4229525300585914</v>
+        <v>0.4273059655070369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>228</v>
@@ -6503,19 +6503,19 @@
         <v>170746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149526</v>
+        <v>153189</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>191059</v>
+        <v>193690</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2593978346004122</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2271601420751362</v>
+        <v>0.2327252602207211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2902573863434908</v>
+        <v>0.29425362984893</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>367842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>350060</v>
+        <v>349481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>384603</v>
+        <v>384717</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7814064536849989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7436320709944274</v>
+        <v>0.7424037841394517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8170117950437533</v>
+        <v>0.8172552787073325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -6553,19 +6553,19 @@
         <v>119652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108195</v>
+        <v>107378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130713</v>
+        <v>129968</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6381561443470143</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5770474699414083</v>
+        <v>0.5726940344929631</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.697146722439273</v>
+        <v>0.6931724402363458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -6574,19 +6574,19 @@
         <v>487495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>467182</v>
+        <v>464551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>508715</v>
+        <v>505052</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7406021653995879</v>
+        <v>0.7406021653995878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7097426136565093</v>
+        <v>0.7057463701510697</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7728398579248636</v>
+        <v>0.7672747397792788</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>237434</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211828</v>
+        <v>210489</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>266147</v>
+        <v>264973</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2102283438811678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1875567703334828</v>
+        <v>0.1863703491353058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2356513082181862</v>
+        <v>0.2346115055978578</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>365</v>
@@ -6699,19 +6699,19 @@
         <v>234408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>213216</v>
+        <v>212729</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>257233</v>
+        <v>259914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2721843646767827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2475767359098358</v>
+        <v>0.2470120070230606</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2986875334938202</v>
+        <v>0.3018011488790344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>641</v>
@@ -6720,19 +6720,19 @@
         <v>471842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>438500</v>
+        <v>435907</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510047</v>
+        <v>509824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2370326551837777</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2202832548831752</v>
+        <v>0.2189804533706629</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.256225276050672</v>
+        <v>0.2561132341121716</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>891976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>863263</v>
+        <v>864437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>917582</v>
+        <v>918921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7897716561188319</v>
+        <v>0.7897716561188322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7643486917818139</v>
+        <v>0.7653884944021421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8124432296665168</v>
+        <v>0.8136296508646939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>865</v>
@@ -6770,19 +6770,19 @@
         <v>626803</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>603978</v>
+        <v>601297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647995</v>
+        <v>648482</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7278156353232174</v>
+        <v>0.7278156353232172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7013124665061794</v>
+        <v>0.6981988511209655</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.752423264090164</v>
+        <v>0.7529879929769394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1706</v>
@@ -6791,19 +6791,19 @@
         <v>1518779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1480574</v>
+        <v>1480797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1552121</v>
+        <v>1554714</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7629673448162222</v>
+        <v>0.7629673448162223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7437747239493283</v>
+        <v>0.7438867658878284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7797167451168251</v>
+        <v>0.7810195466293374</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>118464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99409</v>
+        <v>98641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>139494</v>
+        <v>136667</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2089400320394221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1753319735398923</v>
+        <v>0.1739777528255823</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2460318091194859</v>
+        <v>0.2410446204460995</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>557</v>
@@ -6916,19 +6916,19 @@
         <v>329782</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>304684</v>
+        <v>307484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>351985</v>
+        <v>354413</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3972666255195679</v>
+        <v>0.3972666255195678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3670329513464398</v>
+        <v>0.3704059933362678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4240133316431789</v>
+        <v>0.4269383272079336</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>691</v>
@@ -6937,19 +6937,19 @@
         <v>448246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>415816</v>
+        <v>418230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>478611</v>
+        <v>485005</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.320839440508694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2976272198809737</v>
+        <v>0.2993550177825593</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.342574198803976</v>
+        <v>0.3471507244421581</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>448512</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427482</v>
+        <v>430309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>467567</v>
+        <v>468335</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.791059967960578</v>
+        <v>0.7910599679605778</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7539681908805141</v>
+        <v>0.7589553795539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8246680264601076</v>
+        <v>0.8260222471744169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>732</v>
@@ -6987,19 +6987,19 @@
         <v>500345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478142</v>
+        <v>475714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>525443</v>
+        <v>522643</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6027333744804322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5759866683568211</v>
+        <v>0.573061672792067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6329670486535611</v>
+        <v>0.6295940066637322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1144</v>
@@ -7008,19 +7008,19 @@
         <v>948857</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>918492</v>
+        <v>912098</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>981287</v>
+        <v>978873</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.679160559491306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6574258011960239</v>
+        <v>0.6528492755578417</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7023727801190268</v>
+        <v>0.7006449822174405</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>20592</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11332</v>
+        <v>10218</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38985</v>
+        <v>37426</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08680453392211221</v>
+        <v>0.0868045339221122</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04776700350695055</v>
+        <v>0.04307350452516513</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1643367500955339</v>
+        <v>0.1577658790584077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>419</v>
@@ -7133,19 +7133,19 @@
         <v>253661</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>230884</v>
+        <v>229830</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279078</v>
+        <v>279252</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3006903323923296</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2736896596753138</v>
+        <v>0.272440503576335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3308199847621922</v>
+        <v>0.3310258341091294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>434</v>
@@ -7154,19 +7154,19 @@
         <v>274254</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>246505</v>
+        <v>249036</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>305756</v>
+        <v>304357</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2537449898512181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2280715048810996</v>
+        <v>0.230413021674242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2828913708012</v>
+        <v>0.2815972745398959</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>216636</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198243</v>
+        <v>199802</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225896</v>
+        <v>227010</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9131954660778878</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8356632499044661</v>
+        <v>0.8422341209415923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9522329964930496</v>
+        <v>0.9569264954748349</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>739</v>
@@ -7204,19 +7204,19 @@
         <v>589935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>564518</v>
+        <v>564344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>612712</v>
+        <v>613766</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6993096676076703</v>
+        <v>0.6993096676076704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6691800152378078</v>
+        <v>0.6689741658908709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7263103403246862</v>
+        <v>0.7275594964236652</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>836</v>
@@ -7225,19 +7225,19 @@
         <v>806570</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>775068</v>
+        <v>776467</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>834319</v>
+        <v>831788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7462550101487818</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7171086291987999</v>
+        <v>0.7184027254601041</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7719284951189003</v>
+        <v>0.7695869783257573</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>641561</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>598520</v>
+        <v>592738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>695879</v>
+        <v>684275</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1867112343613301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1741851001735364</v>
+        <v>0.1725024510814107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2025194149061023</v>
+        <v>0.1991420879816707</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1786</v>
@@ -7350,19 +7350,19 @@
         <v>1118682</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1072490</v>
+        <v>1077025</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1164486</v>
+        <v>1169774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3079525822624715</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2952368839150007</v>
+        <v>0.2964853435711814</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3205616844022681</v>
+        <v>0.3220172433338487</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2510</v>
@@ -7371,19 +7371,19 @@
         <v>1760243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1692593</v>
+        <v>1696107</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1826529</v>
+        <v>1833786</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2490173366164131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2394471278195253</v>
+        <v>0.2399442541204468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.258394726129115</v>
+        <v>0.2594214023991717</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2794551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2740233</v>
+        <v>2751837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2837592</v>
+        <v>2843374</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8132887656386699</v>
+        <v>0.81328876563867</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.797480585093898</v>
+        <v>0.8008579120183293</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8258148998264637</v>
+        <v>0.8274975489185895</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3454</v>
@@ -7421,19 +7421,19 @@
         <v>2513961</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2468157</v>
+        <v>2462869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2560153</v>
+        <v>2555618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6920474177375285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6794383155977319</v>
+        <v>0.6779827566661512</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7047631160849993</v>
+        <v>0.7035146564288186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6025</v>
@@ -7442,19 +7442,19 @@
         <v>5308512</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5242226</v>
+        <v>5234969</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5376162</v>
+        <v>5372648</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7509826633835869</v>
+        <v>0.7509826633835868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7416052738708846</v>
+        <v>0.7405785976008283</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7605528721804745</v>
+        <v>0.760055745879553</v>
       </c>
     </row>
     <row r="24">
